--- a/03_Data Analytics/Excel/lecture2.xlsx
+++ b/03_Data Analytics/Excel/lecture2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_AI_Gen\03_Data Analytics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F9B9CD-2D4B-4EE8-A23D-388E23016B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF4778-D776-4075-9D68-79DE9637D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
   <si>
     <t>Mon</t>
   </si>
@@ -295,10 +295,6 @@
     <t>Number of students who gave exam of subject 2</t>
   </si>
   <si>
-    <t>Number of students having attendance atleast 70% 
-and attended Independence Day</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -384,6 +380,18 @@
   </si>
   <si>
     <t>Pandya</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>If 'Age' &gt;= 18 then Concatenate Title &amp; Surname, else Name</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D88F7EC-C326-4730-946C-07670EB66F1F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,6 +1723,10 @@
         <f>IF(F2 &gt;= 50, D2+$E$2, D2)</f>
         <v>74</v>
       </c>
+      <c r="J2">
+        <f>SUM(G2:G15)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1759,6 +1771,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
+      <c r="J4">
+        <f>COUNT(C2:C15)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1785,7 +1801,7 @@
         <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1815,6 +1831,10 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="J6">
+        <f>COUNT(B2:B15)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1840,9 +1860,6 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1868,8 +1885,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1890,8 +1910,9 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
+      <c r="J9">
+        <f>COUNTA(H2:H15)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1921,6 +1942,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1943,6 +1967,10 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="J11">
+        <f>COUNTIF(F2:F15, "&gt;=70")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1968,6 +1996,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2054,38 +2083,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
       <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
       <c r="G1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22</v>
       </c>
@@ -2097,16 +2136,26 @@
         <v>704</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE(E2, ". ", F2, " ", G2)</f>
+        <v>Mr. Anil Panchal</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2118,16 +2167,23 @@
         <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="1">CONCATENATE(E3, ". ", F3, " ", G3)</f>
+        <v>Ms. Aayushi Chopra</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2139,16 +2195,23 @@
         <v>495</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Neeta Patel</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
@@ -2160,16 +2223,23 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Dr. Hemal Bhatt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2181,16 +2251,23 @@
         <v>420</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Neepa Surani</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2202,16 +2279,23 @@
         <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Mr. Anuj Jani</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -2223,16 +2307,23 @@
         <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Palak Raval</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2244,16 +2335,23 @@
         <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Vishwa Sheth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -2265,16 +2363,23 @@
         <v>648</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs. Hetal Pandya</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>77</v>
       </c>
@@ -2283,9 +2388,13 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <f t="array" ref="C14">SUM(A2:A10*B2:B10)</f>
+        <v>4133</v>
       </c>
     </row>
   </sheetData>
